--- a/temp.xlsx
+++ b/temp.xlsx
@@ -95,10 +95,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FBFBFB"/>
+                </a:solidFill>
+                <a:latin typeface="Posterama"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FBFBFB"/>
+                </a:solidFill>
+                <a:latin typeface="Posterama"/>
+              </a:rPr>
               <a:t>Frequency of 'test' by day</a:t>
             </a:r>
           </a:p>
@@ -297,6 +307,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -314,10 +325,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Posterama"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Posterama"/>
+                  </a:rPr>
                   <a:t>Date</a:t>
                 </a:r>
               </a:p>
@@ -326,6 +347,21 @@
           <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-1800000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Posterama"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -338,7 +374,15 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="333339"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -346,10 +390,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1300" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Posterama"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="F0F0F0"/>
+                    </a:solidFill>
+                    <a:latin typeface="Posterama"/>
+                  </a:rPr>
                   <a:t>Frequency</a:t>
                 </a:r>
               </a:p>
@@ -359,17 +413,63 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="F0F0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Posterama"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="192025"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="F0F0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Posterama"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="192025"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -388,10 +488,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -307,7 +307,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="50"/>
+        <c:gapWidth val="30"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -418,7 +418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" baseline="0">
+              <a:defRPr sz="1000" b="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="F0F0F0"/>
                 </a:solidFill>
@@ -488,7 +488,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -14,30 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2020-01-03</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>2020-01-05</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>spy prediction bot</t>
+  </si>
+  <si>
+    <t>__grr</t>
+  </si>
+  <si>
+    <t>message analysisator 3000</t>
+  </si>
+  <si>
+    <t>Wordfish</t>
+  </si>
+  <si>
+    <t>BOT Chicken</t>
   </si>
 </sst>
 </file>
@@ -109,7 +127,7 @@
                 </a:solidFill>
                 <a:latin typeface="Posterama"/>
               </a:rPr>
-              <a:t>Frequency of 'test' by day</a:t>
+              <a:t>Activity by month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -130,54 +148,78 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>user1</c:v>
+                  <c:v>spy prediction bot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2020-01-01</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-01-02</c:v>
+                  <c:v>2022-11-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-01-03</c:v>
+                  <c:v>2022-12-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-01-04</c:v>
+                  <c:v>2023-01-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-01-05</c:v>
+                  <c:v>2023-02-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023-03-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023-04-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-05-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023-06-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -192,54 +234,78 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>user2</c:v>
+                  <c:v>__grr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2020-01-01</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-01-02</c:v>
+                  <c:v>2022-11-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-01-03</c:v>
+                  <c:v>2022-12-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-01-04</c:v>
+                  <c:v>2023-01-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-01-05</c:v>
+                  <c:v>2023-02-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023-03-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023-04-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-05-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023-06-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,54 +320,250 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>user3</c:v>
+                  <c:v>message analysisator 3000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2020-01-01</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-01-02</c:v>
+                  <c:v>2022-11-01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-01-03</c:v>
+                  <c:v>2022-12-01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-01-04</c:v>
+                  <c:v>2023-01-01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-01-05</c:v>
+                  <c:v>2023-02-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023-03-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023-04-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-05-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023-06-01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wordfish</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-11-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-12-01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023-01-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023-02-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023-03-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023-04-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-05-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023-06-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BOT Chicken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2022-10-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2022-11-01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2022-12-01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2023-01-01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023-02-01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023-03-01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023-04-01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023-05-01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023-06-01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,91 +1060,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>15</v>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>448</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>548</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -14,48 +14,567 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>2022-11-01</t>
-  </si>
-  <si>
-    <t>2022-12-01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+  <si>
+    <t>2019-12-29</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t>2020-01-12</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-01-26</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-03-08</t>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+  </si>
+  <si>
+    <t>2020-03-22</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-04-05</t>
+  </si>
+  <si>
+    <t>2020-04-12</t>
+  </si>
+  <si>
+    <t>2020-04-19</t>
+  </si>
+  <si>
+    <t>2020-04-26</t>
+  </si>
+  <si>
+    <t>2020-05-03</t>
+  </si>
+  <si>
+    <t>2020-05-10</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-10-04</t>
+  </si>
+  <si>
+    <t>2020-10-11</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-11-08</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-07-04</t>
+  </si>
+  <si>
+    <t>2021-07-11</t>
+  </si>
+  <si>
+    <t>2021-07-18</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>2021-08-15</t>
+  </si>
+  <si>
+    <t>2021-08-22</t>
+  </si>
+  <si>
+    <t>2021-08-29</t>
+  </si>
+  <si>
+    <t>2021-09-05</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>2021-09-26</t>
+  </si>
+  <si>
+    <t>2021-10-03</t>
+  </si>
+  <si>
+    <t>2021-10-10</t>
+  </si>
+  <si>
+    <t>2021-10-17</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-11-07</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
+  </si>
+  <si>
+    <t>2021-11-21</t>
+  </si>
+  <si>
+    <t>2021-11-28</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>2021-12-19</t>
+  </si>
+  <si>
+    <t>2021-12-26</t>
+  </si>
+  <si>
+    <t>2022-01-02</t>
+  </si>
+  <si>
+    <t>2022-01-09</t>
+  </si>
+  <si>
+    <t>2022-01-16</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>2022-01-30</t>
+  </si>
+  <si>
+    <t>2022-02-06</t>
+  </si>
+  <si>
+    <t>2022-02-13</t>
+  </si>
+  <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
+    <t>2022-02-27</t>
+  </si>
+  <si>
+    <t>2022-03-06</t>
+  </si>
+  <si>
+    <t>2022-03-13</t>
+  </si>
+  <si>
+    <t>2022-03-20</t>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2022-04-10</t>
+  </si>
+  <si>
+    <t>2022-04-17</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-08</t>
+  </si>
+  <si>
+    <t>2022-05-15</t>
+  </si>
+  <si>
+    <t>2022-05-22</t>
+  </si>
+  <si>
+    <t>2022-05-29</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>2022-06-26</t>
+  </si>
+  <si>
+    <t>2022-07-03</t>
+  </si>
+  <si>
+    <t>2022-07-10</t>
+  </si>
+  <si>
+    <t>2022-07-17</t>
+  </si>
+  <si>
+    <t>2022-07-24</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-08-07</t>
+  </si>
+  <si>
+    <t>2022-08-14</t>
+  </si>
+  <si>
+    <t>2022-08-21</t>
+  </si>
+  <si>
+    <t>2022-08-28</t>
+  </si>
+  <si>
+    <t>2022-09-04</t>
+  </si>
+  <si>
+    <t>2022-09-11</t>
+  </si>
+  <si>
+    <t>2022-09-18</t>
+  </si>
+  <si>
+    <t>2022-09-25</t>
+  </si>
+  <si>
+    <t>2022-10-02</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2022-10-23</t>
+  </si>
+  <si>
+    <t>2022-10-30</t>
+  </si>
+  <si>
+    <t>2022-11-06</t>
+  </si>
+  <si>
+    <t>2022-11-13</t>
+  </si>
+  <si>
+    <t>2022-11-20</t>
+  </si>
+  <si>
+    <t>2022-11-27</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
   </si>
   <si>
     <t>2023-01-01</t>
   </si>
   <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>2023-03-01</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
-  </si>
-  <si>
-    <t>2023-05-01</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>spy prediction bot</t>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2023-01-22</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-26</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>2023-03-19</t>
+  </si>
+  <si>
+    <t>2023-03-26</t>
+  </si>
+  <si>
+    <t>2023-04-02</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>2023-04-23</t>
+  </si>
+  <si>
+    <t>2023-04-30</t>
+  </si>
+  <si>
+    <t>2023-05-07</t>
+  </si>
+  <si>
+    <t>2023-05-14</t>
+  </si>
+  <si>
+    <t>2023-05-21</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>2023-06-11</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>sescenti</t>
+  </si>
+  <si>
+    <t>onestig</t>
+  </si>
+  <si>
+    <t>hiiiiiiii</t>
   </si>
   <si>
     <t>__grr</t>
   </si>
   <si>
-    <t>message analysisator 3000</t>
-  </si>
-  <si>
-    <t>Wordfish</t>
-  </si>
-  <si>
-    <t>BOT Chicken</t>
+    <t>gqds</t>
   </si>
 </sst>
 </file>
@@ -127,7 +646,7 @@
                 </a:solidFill>
                 <a:latin typeface="Posterama"/>
               </a:rPr>
-              <a:t>Activity by month</a:t>
+              <a:t>Share of Activity by week</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -138,7 +657,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -148,54 +667,573 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>spy prediction bot</c:v>
+                  <c:v>sescenti</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$183</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2022-10-01</c:v>
+                  <c:v>2019-12-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022-11-01</c:v>
+                  <c:v>2020-01-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2022-12-01</c:v>
+                  <c:v>2020-01-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2021-01-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2021-01-24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2021-01-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2021-02-07</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021-02-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2021-02-21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021-02-28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021-03-07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2021-03-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021-03-21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021-03-28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021-04-04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021-04-11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2021-04-18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2021-04-25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2021-05-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2021-05-09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2021-05-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2021-05-23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2021-05-30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2021-06-06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2021-06-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2021-06-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2021-06-27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2021-07-04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2021-07-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2021-07-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2021-07-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2021-08-08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2021-08-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2021-08-22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2021-08-29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021-09-05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021-09-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021-09-19</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021-09-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2021-10-03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2021-10-10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2021-10-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2021-10-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2021-10-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2021-11-07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2021-11-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2021-11-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021-11-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2021-12-05</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2021-12-12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2021-12-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2021-12-26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022-01-02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2022-01-09</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2022-01-16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2022-01-23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2022-01-30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2022-02-06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2022-02-13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2022-02-20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2022-02-27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2022-03-06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2022-03-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2022-03-20</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2022-03-27</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2022-04-03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2022-04-10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2022-04-17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2022-04-24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2022-05-08</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2022-05-15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2022-05-22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2022-05-29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2022-06-05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2022-06-12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2022-06-19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2022-06-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2022-07-03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2022-07-10</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2022-07-17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2022-07-24</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2022-07-31</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2022-08-07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2022-08-14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2022-08-21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2022-08-28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2022-09-04</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2022-09-11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022-09-18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2022-09-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2022-10-02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022-10-09</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2022-10-16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2022-10-23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022-10-30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2022-11-06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2022-11-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2022-11-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2022-11-27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2022-12-04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2022-12-11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2022-12-18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2022-12-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>2023-01-01</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023-02-01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023-04-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023-05-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023-06-01</c:v>
+                <c:pt idx="158">
+                  <c:v>2023-01-08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2023-01-15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2023-01-22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2023-01-29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2023-02-05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2023-02-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2023-02-19</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2023-02-26</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2023-03-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2023-03-12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2023-03-19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2023-03-26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2023-04-02</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2023-04-09</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2023-04-16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023-04-23</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2023-04-30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2023-05-07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2023-05-14</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2023-05-21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2023-05-28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2023-06-04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2023-06-11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2023-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:f>Sheet1!$B$2:$B$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -219,6 +1257,525 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -234,54 +1791,573 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>__grr</c:v>
+                  <c:v>onestig</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$183</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2022-10-01</c:v>
+                  <c:v>2019-12-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022-11-01</c:v>
+                  <c:v>2020-01-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2022-12-01</c:v>
+                  <c:v>2020-01-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2021-01-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2021-01-24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2021-01-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2021-02-07</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021-02-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2021-02-21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021-02-28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021-03-07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2021-03-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021-03-21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021-03-28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021-04-04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021-04-11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2021-04-18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2021-04-25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2021-05-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2021-05-09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2021-05-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2021-05-23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2021-05-30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2021-06-06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2021-06-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2021-06-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2021-06-27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2021-07-04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2021-07-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2021-07-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2021-07-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2021-08-08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2021-08-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2021-08-22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2021-08-29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021-09-05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021-09-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021-09-19</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021-09-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2021-10-03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2021-10-10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2021-10-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2021-10-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2021-10-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2021-11-07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2021-11-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2021-11-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021-11-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2021-12-05</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2021-12-12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2021-12-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2021-12-26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022-01-02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2022-01-09</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2022-01-16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2022-01-23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2022-01-30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2022-02-06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2022-02-13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2022-02-20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2022-02-27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2022-03-06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2022-03-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2022-03-20</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2022-03-27</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2022-04-03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2022-04-10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2022-04-17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2022-04-24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2022-05-08</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2022-05-15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2022-05-22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2022-05-29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2022-06-05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2022-06-12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2022-06-19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2022-06-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2022-07-03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2022-07-10</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2022-07-17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2022-07-24</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2022-07-31</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2022-08-07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2022-08-14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2022-08-21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2022-08-28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2022-09-04</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2022-09-11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022-09-18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2022-09-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2022-10-02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022-10-09</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2022-10-16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2022-10-23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022-10-30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2022-11-06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2022-11-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2022-11-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2022-11-27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2022-12-04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2022-12-11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2022-12-18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2022-12-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>2023-01-01</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023-02-01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023-04-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023-05-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023-06-01</c:v>
+                <c:pt idx="158">
+                  <c:v>2023-01-08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2023-01-15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2023-01-22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2023-01-29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2023-02-05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2023-02-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2023-02-19</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2023-02-26</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2023-03-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2023-03-12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2023-03-19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2023-03-26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2023-04-02</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2023-04-09</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2023-04-16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023-04-23</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2023-04-30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2023-05-07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2023-05-14</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2023-05-21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2023-05-28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2023-06-04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2023-06-11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2023-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$C$2:$C$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>197</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -296,16 +2372,535 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>448</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,52 +2915,571 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>message analysisator 3000</c:v>
+                  <c:v>hiiiiiiii</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$183</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2022-10-01</c:v>
+                  <c:v>2019-12-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022-11-01</c:v>
+                  <c:v>2020-01-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2022-12-01</c:v>
+                  <c:v>2020-01-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2021-01-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2021-01-24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2021-01-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2021-02-07</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021-02-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2021-02-21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021-02-28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021-03-07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2021-03-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021-03-21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021-03-28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021-04-04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021-04-11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2021-04-18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2021-04-25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2021-05-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2021-05-09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2021-05-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2021-05-23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2021-05-30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2021-06-06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2021-06-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2021-06-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2021-06-27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2021-07-04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2021-07-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2021-07-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2021-07-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2021-08-08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2021-08-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2021-08-22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2021-08-29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021-09-05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021-09-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021-09-19</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021-09-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2021-10-03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2021-10-10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2021-10-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2021-10-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2021-10-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2021-11-07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2021-11-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2021-11-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021-11-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2021-12-05</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2021-12-12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2021-12-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2021-12-26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022-01-02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2022-01-09</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2022-01-16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2022-01-23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2022-01-30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2022-02-06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2022-02-13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2022-02-20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2022-02-27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2022-03-06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2022-03-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2022-03-20</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2022-03-27</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2022-04-03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2022-04-10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2022-04-17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2022-04-24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2022-05-08</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2022-05-15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2022-05-22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2022-05-29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2022-06-05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2022-06-12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2022-06-19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2022-06-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2022-07-03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2022-07-10</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2022-07-17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2022-07-24</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2022-07-31</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2022-08-07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2022-08-14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2022-08-21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2022-08-28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2022-09-04</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2022-09-11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022-09-18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2022-09-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2022-10-02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022-10-09</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2022-10-16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2022-10-23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022-10-30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2022-11-06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2022-11-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2022-11-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2022-11-27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2022-12-04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2022-12-11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2022-12-18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2022-12-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>2023-01-01</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023-02-01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023-04-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023-05-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023-06-01</c:v>
+                <c:pt idx="158">
+                  <c:v>2023-01-08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2023-01-15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2023-01-22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2023-01-29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2023-02-05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2023-02-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2023-02-19</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2023-02-26</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2023-03-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2023-03-12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2023-03-19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2023-03-26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2023-04-02</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2023-04-09</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2023-04-16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023-04-23</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2023-04-30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2023-05-07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2023-05-14</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2023-05-21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2023-05-28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2023-06-04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2023-06-11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2023-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
+              <c:f>Sheet1!$D$2:$D$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -385,12 +3499,531 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -406,52 +4039,571 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wordfish</c:v>
+                  <c:v>__grr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$183</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2022-10-01</c:v>
+                  <c:v>2019-12-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022-11-01</c:v>
+                  <c:v>2020-01-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2022-12-01</c:v>
+                  <c:v>2020-01-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2021-01-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2021-01-24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2021-01-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2021-02-07</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021-02-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2021-02-21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021-02-28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021-03-07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2021-03-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021-03-21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021-03-28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021-04-04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021-04-11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2021-04-18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2021-04-25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2021-05-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2021-05-09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2021-05-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2021-05-23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2021-05-30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2021-06-06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2021-06-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2021-06-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2021-06-27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2021-07-04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2021-07-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2021-07-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2021-07-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2021-08-08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2021-08-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2021-08-22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2021-08-29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021-09-05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021-09-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021-09-19</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021-09-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2021-10-03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2021-10-10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2021-10-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2021-10-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2021-10-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2021-11-07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2021-11-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2021-11-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021-11-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2021-12-05</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2021-12-12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2021-12-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2021-12-26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022-01-02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2022-01-09</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2022-01-16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2022-01-23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2022-01-30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2022-02-06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2022-02-13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2022-02-20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2022-02-27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2022-03-06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2022-03-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2022-03-20</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2022-03-27</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2022-04-03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2022-04-10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2022-04-17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2022-04-24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2022-05-08</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2022-05-15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2022-05-22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2022-05-29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2022-06-05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2022-06-12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2022-06-19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2022-06-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2022-07-03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2022-07-10</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2022-07-17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2022-07-24</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2022-07-31</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2022-08-07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2022-08-14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2022-08-21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2022-08-28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2022-09-04</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2022-09-11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022-09-18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2022-09-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2022-10-02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022-10-09</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2022-10-16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2022-10-23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022-10-30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2022-11-06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2022-11-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2022-11-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2022-11-27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2022-12-04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2022-12-11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2022-12-18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2022-12-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>2023-01-01</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023-02-01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023-04-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023-05-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023-06-01</c:v>
+                <c:pt idx="158">
+                  <c:v>2023-01-08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2023-01-15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2023-01-22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2023-01-29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2023-02-05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2023-02-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2023-02-19</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2023-02-26</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2023-03-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2023-03-12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2023-03-19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2023-03-26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2023-04-02</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2023-04-09</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2023-04-16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023-04-23</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2023-04-30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2023-05-07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2023-05-14</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2023-05-21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2023-05-28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2023-06-04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2023-06-11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2023-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -477,7 +4629,526 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>548</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,52 +5163,571 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BOT Chicken</c:v>
+                  <c:v>gqds</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$183</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
-                  <c:v>2022-10-01</c:v>
+                  <c:v>2019-12-29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2022-11-01</c:v>
+                  <c:v>2020-01-05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2022-12-01</c:v>
+                  <c:v>2020-01-12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2020-01-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-01-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-02-09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-02-16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-02-23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-04-05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-04-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-04-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-04-26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-05-03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-05-10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-05-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-05-24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-06-07</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-06-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-06-21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-06-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-07-05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-07-12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-07-19</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-07-26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-08-02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-08-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-08-16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-08-23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-08-30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-09-06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-09-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-09-20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-09-27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-10-04</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-10-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-10-18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-10-25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-11-01</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-11-08</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-11-15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-11-22</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-11-29</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-12-06</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-12-13</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-12-20</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-12-27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2021-01-03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2021-01-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2021-01-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2021-01-24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2021-01-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2021-02-07</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021-02-14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2021-02-21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2021-02-28</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2021-03-07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2021-03-14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2021-03-21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2021-03-28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2021-04-04</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2021-04-11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2021-04-18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2021-04-25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2021-05-02</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2021-05-09</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2021-05-16</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2021-05-23</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2021-05-30</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2021-06-06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2021-06-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2021-06-20</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2021-06-27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2021-07-04</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2021-07-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2021-07-18</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2021-07-25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2021-08-01</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2021-08-08</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2021-08-15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2021-08-22</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2021-08-29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021-09-05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021-09-12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021-09-19</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021-09-26</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2021-10-03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2021-10-10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2021-10-17</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2021-10-24</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2021-10-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2021-11-07</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2021-11-14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2021-11-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2021-11-28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2021-12-05</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2021-12-12</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2021-12-19</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2021-12-26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2022-01-02</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2022-01-09</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2022-01-16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2022-01-23</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2022-01-30</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2022-02-06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2022-02-13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2022-02-20</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2022-02-27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2022-03-06</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2022-03-13</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2022-03-20</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2022-03-27</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2022-04-03</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2022-04-10</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2022-04-17</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2022-04-24</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022-05-01</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2022-05-08</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2022-05-15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2022-05-22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2022-05-29</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2022-06-05</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2022-06-12</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2022-06-19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2022-06-26</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2022-07-03</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2022-07-10</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2022-07-17</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2022-07-24</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2022-07-31</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2022-08-07</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2022-08-14</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2022-08-21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2022-08-28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2022-09-04</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2022-09-11</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2022-09-18</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2022-09-25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2022-10-02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022-10-09</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2022-10-16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2022-10-23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2022-10-30</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2022-11-06</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2022-11-13</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2022-11-20</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2022-11-27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2022-12-04</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2022-12-11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2022-12-18</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2022-12-25</c:v>
+                </c:pt>
+                <c:pt idx="157">
                   <c:v>2023-01-01</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023-02-01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2023-03-01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023-04-01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023-05-01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2023-06-01</c:v>
+                <c:pt idx="158">
+                  <c:v>2023-01-08</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2023-01-15</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2023-01-22</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2023-01-29</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2023-02-05</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2023-02-12</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2023-02-19</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2023-02-26</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2023-03-05</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2023-03-12</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2023-03-19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2023-03-26</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2023-04-02</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2023-04-09</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2023-04-16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023-04-23</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2023-04-30</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2023-05-07</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2023-05-14</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2023-05-21</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2023-05-28</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2023-06-04</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2023-06-11</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2023-06-18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:f>Sheet1!$F$2:$F$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="182"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -563,13 +5753,532 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>754</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="30"/>
+        <c:gapWidth val="10"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -666,14 +6375,14 @@
                     </a:solidFill>
                     <a:latin typeface="Posterama"/>
                   </a:rPr>
-                  <a:t>Frequency</a:t>
+                  <a:t>Share of total</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1060,7 +6769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,19 +6777,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1088,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1191,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1211,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1234,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1251,16 +6960,3476 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>162</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>208</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>345</v>
+      </c>
+      <c r="C13">
+        <v>312</v>
+      </c>
+      <c r="D13">
+        <v>524</v>
+      </c>
+      <c r="E13">
+        <v>418</v>
+      </c>
+      <c r="F13">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>592</v>
+      </c>
+      <c r="C14">
+        <v>367</v>
+      </c>
+      <c r="D14">
+        <v>258</v>
+      </c>
+      <c r="E14">
+        <v>497</v>
+      </c>
+      <c r="F14">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>816</v>
+      </c>
+      <c r="C15">
+        <v>347</v>
+      </c>
+      <c r="D15">
+        <v>414</v>
+      </c>
+      <c r="E15">
+        <v>1010</v>
+      </c>
+      <c r="F15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>654</v>
+      </c>
+      <c r="C16">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>674</v>
+      </c>
+      <c r="E16">
+        <v>1032</v>
+      </c>
+      <c r="F16">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>466</v>
+      </c>
+      <c r="C17">
+        <v>135</v>
+      </c>
+      <c r="D17">
+        <v>454</v>
+      </c>
+      <c r="E17">
+        <v>528</v>
+      </c>
+      <c r="F17">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>355</v>
+      </c>
+      <c r="E18">
+        <v>658</v>
+      </c>
+      <c r="F18">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>643</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>508</v>
+      </c>
+      <c r="E19">
+        <v>939</v>
+      </c>
+      <c r="F19">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>221</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>394</v>
+      </c>
+      <c r="E20">
+        <v>146</v>
+      </c>
+      <c r="F20">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>191</v>
+      </c>
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>147</v>
+      </c>
+      <c r="F21">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>146</v>
+      </c>
+      <c r="C22">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>77</v>
+      </c>
+      <c r="F22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>151</v>
+      </c>
+      <c r="D23">
+        <v>335</v>
+      </c>
+      <c r="E23">
+        <v>352</v>
+      </c>
+      <c r="F23">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>460</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>370</v>
+      </c>
+      <c r="E24">
+        <v>343</v>
+      </c>
+      <c r="F24">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>766</v>
+      </c>
+      <c r="C25">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>287</v>
+      </c>
+      <c r="E25">
+        <v>604</v>
+      </c>
+      <c r="F25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>548</v>
       </c>
-      <c r="F10">
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>190</v>
+      </c>
+      <c r="E26">
+        <v>401</v>
+      </c>
+      <c r="F26">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>376</v>
+      </c>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>168</v>
+      </c>
+      <c r="F27">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>162</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>6</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
